--- a/data_raw/data_concurso/dados.xlsx
+++ b/data_raw/data_concurso/dados.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$110</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="99">
   <si>
     <t>NU_INSCRICAO</t>
   </si>
@@ -40,148 +43,277 @@
     <t>NO_NOTA</t>
   </si>
   <si>
+    <t>IN_GESTANTE</t>
+  </si>
+  <si>
+    <t>Aracaju</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Sorriso</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Cascavel</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Canoas</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ponta Porã</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Guarulhos Campinas</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
     <t>Belo Horizonte</t>
   </si>
   <si>
     <t>MG</t>
   </si>
   <si>
-    <t>F</t>
+    <t>João Pessoa</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Goiânia</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Santo André</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>São José dos Campos</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto</t>
+  </si>
+  <si>
+    <t>Teresina</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Sinop</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Bento Gonçalves</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Porto Velho</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Várzea Grande</t>
+  </si>
+  <si>
+    <t>Boa Vista</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Lucas do Rio Verde</t>
+  </si>
+  <si>
+    <t>Corumbá</t>
+  </si>
+  <si>
+    <t>Campo Grande</t>
+  </si>
+  <si>
+    <t>Aquidauana</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Macapá</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
   </si>
   <si>
     <t>Uberlândia</t>
   </si>
   <si>
-    <t>M</t>
+    <t>Maringá</t>
+  </si>
+  <si>
+    <t>Maceió</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Pelotas</t>
   </si>
   <si>
     <t>Ouro Preto</t>
   </si>
   <si>
+    <t>São Luís</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Rio Branco</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>Rio Grande</t>
+  </si>
+  <si>
     <t>Contagem</t>
   </si>
   <si>
-    <t>Ribeirão Preto</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Ponta Grossa</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Cascavel</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Guarulhos Campinas</t>
-  </si>
-  <si>
-    <t>Bento Gonçalves</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
-    <t>São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>São José dos Campos</t>
-  </si>
-  <si>
-    <t>Santo André</t>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Juiz de Fora</t>
+  </si>
+  <si>
+    <t>Três Lagoas</t>
+  </si>
+  <si>
+    <t>Gramado</t>
+  </si>
+  <si>
+    <t>Belém</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Cáceres</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Rondonópolis</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
   <si>
     <t>Coxim</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Cuiabá</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Sinop</t>
-  </si>
-  <si>
-    <t>Várzea Grande</t>
-  </si>
-  <si>
-    <t>Sorriso</t>
-  </si>
-  <si>
-    <t>Lucas do Rio Verde</t>
-  </si>
-  <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
-    <t>Rondonópolis</t>
-  </si>
-  <si>
-    <t>Curitiba</t>
-  </si>
-  <si>
-    <t>Londrina</t>
-  </si>
-  <si>
-    <t>Corumbá</t>
-  </si>
-  <si>
-    <t>Ponta Porã</t>
-  </si>
-  <si>
-    <t>Bonito</t>
-  </si>
-  <si>
-    <t>Aquidauana</t>
-  </si>
-  <si>
-    <t>Três Lagoas</t>
-  </si>
-  <si>
-    <t>Porto Alegre</t>
-  </si>
-  <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
-    <t>Pelotas</t>
-  </si>
-  <si>
-    <t>Rio Grande</t>
-  </si>
-  <si>
-    <t>Gramado</t>
-  </si>
-  <si>
-    <t>Campo Grande</t>
-  </si>
-  <si>
-    <t>Juiz de Fora</t>
-  </si>
-  <si>
-    <t>Canoas</t>
-  </si>
-  <si>
-    <t>Santa Maria</t>
-  </si>
-  <si>
-    <t>Montes Claros</t>
-  </si>
-  <si>
-    <t>Mariana</t>
   </si>
 </sst>
 </file>
@@ -189,23 +321,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -219,6 +344,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,17 +365,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,21 +400,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,26 +426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,15 +442,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +497,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,25 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,36 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +711,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,20 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,31 +791,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,132 +824,136 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,25 +1273,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="30.1428571428571" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.2857142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.8571428571429" style="2"/>
+    <col min="5" max="5" width="12.8571428571429" style="2"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="17.2857142857143" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5714285714286" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,35 +1318,42 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1">
         <v>200000400000</v>
       </c>
       <c r="B2" s="2">
         <v>2020</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>748.444082317366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>559.677768404485</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>200000400001</v>
       </c>
@@ -1216,26 +1361,30 @@
         <v>2020</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>720.560828290783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>509.850566317616</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>200000400002</v>
       </c>
@@ -1243,53 +1392,61 @@
         <v>2020</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>674.656897333693</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
+        <v>585.215409039213</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1">
         <v>200000400003</v>
       </c>
       <c r="B5" s="2">
         <v>2020</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>774.749081172127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>559.962375732606</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>200000400004</v>
       </c>
@@ -1297,26 +1454,30 @@
         <v>2020</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>514.397693587419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>799.547982343286</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>200000400005</v>
       </c>
@@ -1324,26 +1485,30 @@
         <v>2020</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f ca="1" t="shared" ref="H3:H12" si="0">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>765.270437083295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>542.62624516046</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>200000400006</v>
       </c>
@@ -1351,26 +1516,30 @@
         <v>2020</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f ca="1" t="shared" si="0"/>
-        <v>355.947522321147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>487.727949048275</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>200000400007</v>
       </c>
@@ -1378,26 +1547,30 @@
         <v>2020</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f ca="1" t="shared" si="0"/>
-        <v>574.108036581968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>778.344427229354</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>200000400008</v>
       </c>
@@ -1405,26 +1578,30 @@
         <v>2020</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <f ca="1" t="shared" si="0"/>
-        <v>353.253383115892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>407.126628163785</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>200000400009</v>
       </c>
@@ -1432,80 +1609,92 @@
         <v>2020</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f ca="1" t="shared" si="0"/>
-        <v>637.983009533267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>735.085700399475</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>200000400010</v>
       </c>
       <c r="B12" s="2">
         <v>2020</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="4">
+        <v>19</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <f ca="1" t="shared" si="0"/>
-        <v>579.786767353489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>554.354359048546</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>200000400011</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18</v>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f ca="1" t="shared" ref="H13:H22" si="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>661.048724767238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>435.75715252425</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>200000400012</v>
       </c>
@@ -1513,26 +1702,30 @@
         <v>2020</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>545.92577325386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>806.545729295548</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>200000400013</v>
       </c>
@@ -1540,26 +1733,30 @@
         <v>2020</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>702.76616859481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>827.034090953184</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>200000400014</v>
       </c>
@@ -1567,26 +1764,30 @@
         <v>2020</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>581.25108437895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>797.304544335173</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>200000400015</v>
       </c>
@@ -1594,26 +1795,30 @@
         <v>2020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>846.377156985519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>674.643262192932</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>200000400016</v>
       </c>
@@ -1621,53 +1826,61 @@
         <v>2020</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>373.879764252704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>471.522272744345</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>200000400017</v>
       </c>
       <c r="B19" s="2">
         <v>2020</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>431.4628719656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>672.39572205344</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>200000400018</v>
       </c>
@@ -1675,26 +1888,30 @@
         <v>2020</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>24</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>576.552409624944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>742.525346874739</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>200000400019</v>
       </c>
@@ -1702,80 +1919,92 @@
         <v>2020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>493.540625548856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>515.491363479691</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>200000400020</v>
       </c>
       <c r="B22" s="2">
         <v>2020</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="2">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <f ca="1" t="shared" si="1"/>
-        <v>705.584060441256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>742.469948441478</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>200000400021</v>
       </c>
       <c r="B23" s="2">
         <v>2020</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="2">
-        <v>24</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
+      <c r="E23" s="4">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f ca="1" t="shared" ref="H23:H32" si="2">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>581.230609829384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>843.802013799044</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>200000400022</v>
       </c>
@@ -1783,26 +2012,30 @@
         <v>2020</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>25</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>690.09096385072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>330.608049850715</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>200000400023</v>
       </c>
@@ -1810,26 +2043,30 @@
         <v>2020</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
-        <v>19</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>388.484840847092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>468.64059587138</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>200000400024</v>
       </c>
@@ -1837,26 +2074,30 @@
         <v>2020</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
-        <v>18</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>708.135293333148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>477.277730092732</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>200000400025</v>
       </c>
@@ -1864,215 +2105,247 @@
         <v>2020</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>482.026057338102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>534.371656881519</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>200000400026</v>
       </c>
       <c r="B28" s="2">
         <v>2020</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="2">
-        <v>21</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>435.767160352058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>818.97530421667</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>200000400027</v>
       </c>
       <c r="B29" s="2">
         <v>2020</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2">
-        <v>22</v>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="4">
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>620.912834582322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>723.293799988999</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>200000400028</v>
       </c>
       <c r="B30" s="2">
         <v>2020</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2">
-        <v>35</v>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4">
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>752.615265018653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>810.826410784919</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>200000400029</v>
       </c>
       <c r="B31" s="2">
         <v>2020</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>512.239510688133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>339.865608867428</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>200000400030</v>
       </c>
       <c r="B32" s="2">
         <v>2020</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <f ca="1" t="shared" si="2"/>
-        <v>374.699206453486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>592.435890103395</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>200000400031</v>
       </c>
       <c r="B33" s="2">
         <v>2020</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>29</v>
+      <c r="C33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E33" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f ca="1" t="shared" ref="H33:H42" si="3">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>825.433869348553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>444.817080364313</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>200000400032</v>
       </c>
       <c r="B34" s="2">
         <v>2020</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="2">
-        <v>19</v>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4">
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>439.252071198626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>763.376903999449</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>200000400033</v>
       </c>
@@ -2080,80 +2353,92 @@
         <v>2020</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
-        <v>21</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>333.225113491022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>549.73392666551</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>200000400034</v>
       </c>
       <c r="B36" s="2">
         <v>2020</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>457.128248130622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>580.502175575418</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>200000400035</v>
       </c>
       <c r="B37" s="2">
         <v>2020</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
+      <c r="C37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E37" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>751.19778250842</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>345.419493497222</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>200000400036</v>
       </c>
@@ -2161,26 +2446,30 @@
         <v>2020</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
-        <v>28</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>750.034738214285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>499.294944541681</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>200000400037</v>
       </c>
@@ -2188,26 +2477,30 @@
         <v>2020</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
         <v>19</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>787.764647565565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>535.048484644089</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>200000400038</v>
       </c>
@@ -2215,26 +2508,30 @@
         <v>2020</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2">
-        <v>21</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>376.426116144311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>535.456393058124</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>200000400039</v>
       </c>
@@ -2242,53 +2539,61 @@
         <v>2020</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="2">
-        <v>24</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>714.659352112799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>380.7318212259</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>200000400040</v>
       </c>
       <c r="B42" s="2">
         <v>2020</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
+      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E42" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f ca="1" t="shared" si="3"/>
-        <v>780.306421647077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>464.382621992673</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>200000400041</v>
       </c>
@@ -2296,26 +2601,30 @@
         <v>2020</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E43" s="2">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <f ca="1" t="shared" ref="H43:H52" si="4">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>333.294974039352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>744.865473213007</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>200000400042</v>
       </c>
@@ -2323,161 +2632,185 @@
         <v>2020</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>579.12820850669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>509.146249434169</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>200000400043</v>
       </c>
       <c r="B45" s="2">
         <v>2020</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="2">
-        <v>19</v>
+      <c r="C45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="4">
+        <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>657.694256034123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>521.792397993212</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>200000400044</v>
       </c>
       <c r="B46" s="2">
         <v>2020</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="2">
-        <v>18</v>
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="4">
+        <v>21</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>704.997677922953</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>671.886732836729</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>200000400045</v>
       </c>
       <c r="B47" s="2">
         <v>2020</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
+      <c r="C47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4">
+        <v>26</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>677.389734877619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>623.641743578834</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>200000400046</v>
       </c>
       <c r="B48" s="2">
         <v>2020</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2">
-        <v>23</v>
+      <c r="C48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="4">
+        <v>27</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>480.997612203715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>772.70546043454</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>200000400047</v>
       </c>
       <c r="B49" s="2">
         <v>2020</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2">
-        <v>26</v>
+      <c r="C49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="4">
+        <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>584.0159466181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>541.558373543556</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>200000400048</v>
       </c>
@@ -2485,53 +2818,61 @@
         <v>2020</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>411.183853783749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>872.570886711499</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>200000400049</v>
       </c>
       <c r="B51" s="2">
         <v>2020</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>23</v>
+      <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E51" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
       <c r="H51" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>726.774919312576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>445.182642437318</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>200000400050</v>
       </c>
@@ -2539,80 +2880,92 @@
         <v>2020</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
-        <f ca="1" t="shared" si="4"/>
-        <v>691.343547123183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>829.302130945621</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>200000400051</v>
       </c>
       <c r="B53" s="2">
         <v>2020</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2">
-        <v>26</v>
+      <c r="C53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="4">
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
-        <f ca="1" t="shared" ref="H53:H59" si="5">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>349.39108366859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>635.575229166225</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>200000400052</v>
       </c>
       <c r="B54" s="2">
         <v>2020</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="C54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="4">
         <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>600.015035789227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>440.427555300845</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>200000400053</v>
       </c>
@@ -2620,26 +2973,30 @@
         <v>2020</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
         <v>21</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>495.089920136985</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>428.268428077221</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>200000400054</v>
       </c>
@@ -2647,26 +3004,30 @@
         <v>2020</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2">
-        <v>22</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>788.442556781217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>327.989791341531</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>200000400055</v>
       </c>
@@ -2674,80 +3035,1628 @@
         <v>2020</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2">
-        <v>21</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>760.093128334543</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>605.197909353584</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>200000400056</v>
       </c>
       <c r="B58" s="2">
         <v>2020</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2">
-        <v>21</v>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="4">
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>446.570681158564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>767.491360733193</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>200000400057</v>
       </c>
       <c r="B59" s="2">
         <v>2020</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>507.205893862672</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>200000400058</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2">
+        <v>21</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>833.669853495795</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>200000400059</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="2">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>702.788059069785</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>200000400060</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>863.652633546099</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>200000400061</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2">
+        <v>21</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>701.025441746332</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>200000400062</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2">
+        <v>36</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>533.81209212906</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>200000400063</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="2">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>447.931768119641</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>200000400064</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="4">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>313.438458668141</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>200000400065</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="2">
+        <v>33</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>579.374439227086</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>200000400066</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="2">
+        <v>21</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>716.294427291271</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>200000400067</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2">
+        <v>24</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>612.770131612552</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>200000400068</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="2">
+        <v>19</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>517.469013241661</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>200000400069</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="4">
+        <v>24</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>728.834767810214</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>200000400070</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="4">
+        <v>21</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>508.37528349066</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>200000400071</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="4">
+        <v>26</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>867.352664106704</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>200000400072</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="4">
+        <v>22</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>672.636049338568</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>200000400073</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>596.41638827316</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>200000400074</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="2">
+        <v>18</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>699.155696930913</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>200000400075</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="4">
+        <v>23</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>657.99142617363</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>200000400076</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2">
+        <v>28</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>637.187600431216</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>200000400077</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="2">
+        <v>22</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>364.892592072734</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>200000400078</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2">
+        <v>19</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>853.743447343969</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>200000400079</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="2">
+        <v>18</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>716.525493847338</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>200000400080</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="4">
+        <v>22</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>774.904236303832</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>200000400081</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="4">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>815.742596831267</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>200000400082</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="4">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>368.950824869057</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>200000400083</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2">
+        <v>27</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>440.947029710232</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>200000400084</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="2">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>703.618568495179</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>200000400085</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="4">
+        <v>17</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>388.067834553429</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>200000400086</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="4">
+        <v>22</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>399.587047342084</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>200000400087</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="4">
+        <v>35</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>479.799845972387</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>200000400088</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2">
+        <v>18</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>834.807097872299</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>200000400089</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="4">
+        <v>35</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>560.285875101503</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>200000400090</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2">
+        <v>26</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>592.178044993915</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>200000400091</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="2">
+        <v>32</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>570.325162716139</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>200000400092</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>715.201558005558</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>200000400093</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2">
+        <v>23</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>627.984112870441</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>200000400094</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="4">
+        <v>17</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>499.078984230649</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>200000400095</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2">
+        <v>26</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>379.457280263643</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>200000400096</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="2">
+        <v>19</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>679.431171565631</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>200000400097</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="4">
+        <v>21</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>714.454313284015</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>200000400098</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2">
+        <v>29</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>497.078855926567</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>200000400099</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>882.548842111913</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>200000400100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="4">
+        <v>24</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>388.119894393622</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>200000400101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2">
+        <v>26</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>563.62897530338</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>200000400102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="E104" s="2">
+        <v>18</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>516.555939913961</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>200000400103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <f ca="1" t="shared" si="5"/>
-        <v>684.30226237799</v>
+      <c r="D105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2">
+        <v>19</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>452.282564951749</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>200000400104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="2">
+        <v>19</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>417.001077726319</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>200000400105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="4">
+        <v>17</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>757.786526646203</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>200000400106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="4">
+        <v>15</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>584.955644819435</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>200000400107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="2">
+        <v>24</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>668.175281418512</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>200000400108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="2">
+        <v>19</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3">
+        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>818.490386527099</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I110">
+    <sortState ref="A2:I110">
+      <sortCondition ref="A1" descending="1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/data_raw/data_concurso/dados.xlsx
+++ b/data_raw/data_concurso/dados.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$110</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
   <si>
     <t>NU_INSCRICAO</t>
   </si>
@@ -40,10 +40,13 @@
     <t>TP_ESTADO_CIVIL</t>
   </si>
   <si>
+    <t>IN_GESTANTE</t>
+  </si>
+  <si>
     <t>NO_NOTA</t>
   </si>
   <si>
-    <t>IN_GESTANTE</t>
+    <t>NU_NOTA_REDACAO</t>
   </si>
   <si>
     <t>Aracaju</t>
@@ -321,8 +324,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
@@ -337,13 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -352,7 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,36 +356,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +372,50 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,8 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +479,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,19 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,19 +572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,25 +608,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,31 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,25 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +691,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -715,17 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,11 +742,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,169 +781,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,13 +950,12 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1288,12 +1290,13 @@
     <col min="5" max="5" width="12.8571428571429" style="2"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="17.2857142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.2857142857143" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5714285714286" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.8571428571429"/>
+    <col min="8" max="8" width="13.5714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.4285714285714" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.2857142857143" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,11 +1318,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
@@ -1329,29 +1335,32 @@
       <c r="B2" s="2">
         <v>2020</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>559.677768404485</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
+        <v>799.23950302763</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f ca="1">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
@@ -1361,28 +1370,31 @@
         <v>2020</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>509.850566317616</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f ca="1" t="shared" ref="I2:I65" si="0">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>820.365716999668</v>
+      </c>
+      <c r="J3" s="4">
+        <f ca="1" t="shared" ref="J3:J12" si="1">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>583</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
@@ -1392,28 +1404,31 @@
         <v>2020</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>585.215409039213</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>611.165287820437</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1">
@@ -1422,29 +1437,32 @@
       <c r="B5" s="2">
         <v>2020</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>559.962375732606</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>549.772026751193</v>
+      </c>
+      <c r="J5" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
@@ -1454,28 +1472,31 @@
         <v>2020</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>799.547982343286</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>632.350029311325</v>
+      </c>
+      <c r="J6" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
@@ -1485,28 +1506,31 @@
         <v>2020</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>542.62624516046</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>782.173055529004</v>
+      </c>
+      <c r="J7" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>996</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
@@ -1516,28 +1540,31 @@
         <v>2020</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>487.727949048275</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>401.053934476788</v>
+      </c>
+      <c r="J8" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>840</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
@@ -1547,28 +1574,31 @@
         <v>2020</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>778.344427229354</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>585.54793083556</v>
+      </c>
+      <c r="J9" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>922</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -1578,28 +1608,31 @@
         <v>2020</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>407.126628163785</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>415.419516020449</v>
+      </c>
+      <c r="J10" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>447</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
@@ -1609,28 +1642,31 @@
         <v>2020</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>735.085700399475</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>392.951387055311</v>
+      </c>
+      <c r="J11" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>518</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
@@ -1639,29 +1675,32 @@
       <c r="B12" s="2">
         <v>2020</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>554.354359048546</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>682.415023480423</v>
+      </c>
+      <c r="J12" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>477</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
@@ -1670,29 +1709,32 @@
       <c r="B13" s="2">
         <v>2020</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>435.75715252425</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>797.151533144677</v>
+      </c>
+      <c r="J13" s="4">
+        <f ca="1" t="shared" ref="J13:J22" si="2">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>903</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
@@ -1702,28 +1744,31 @@
         <v>2020</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2">
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>806.545729295548</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>773.395385607095</v>
+      </c>
+      <c r="J14" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>915</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
@@ -1733,28 +1778,31 @@
         <v>2020</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>827.034090953184</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>503.358153813365</v>
+      </c>
+      <c r="J15" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>694</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
@@ -1764,28 +1812,31 @@
         <v>2020</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>797.304544335173</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>895.107779779264</v>
+      </c>
+      <c r="J16" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>717</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
@@ -1795,28 +1846,31 @@
         <v>2020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>674.643262192932</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>737.85659077965</v>
+      </c>
+      <c r="J17" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
@@ -1826,28 +1880,31 @@
         <v>2020</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2">
         <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>471.522272744345</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>677.565918393586</v>
+      </c>
+      <c r="J18" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>847</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
@@ -1856,29 +1913,32 @@
       <c r="B19" s="2">
         <v>2020</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="2">
         <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>672.39572205344</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>523.968484705813</v>
+      </c>
+      <c r="J19" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>711</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
@@ -1888,28 +1948,31 @@
         <v>2020</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>742.525346874739</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>643.783117776834</v>
+      </c>
+      <c r="J20" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>486</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
@@ -1919,28 +1982,31 @@
         <v>2020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>515.491363479691</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>774.550655754024</v>
+      </c>
+      <c r="J21" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>480</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
@@ -1949,29 +2015,32 @@
       <c r="B22" s="2">
         <v>2020</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>742.469948441478</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>851.349827782677</v>
+      </c>
+      <c r="J22" s="4">
+        <f ca="1" t="shared" si="2"/>
+        <v>496</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
@@ -1980,29 +2049,32 @@
       <c r="B23" s="2">
         <v>2020</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="4">
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2">
         <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>843.802013799044</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>852.578595699786</v>
+      </c>
+      <c r="J23" s="4">
+        <f ca="1" t="shared" ref="J23:J32" si="3">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>966</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
@@ -2012,28 +2084,31 @@
         <v>2020</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>330.608049850715</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>606.792656585744</v>
+      </c>
+      <c r="J24" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>389</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
@@ -2043,28 +2118,31 @@
         <v>2020</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>468.64059587138</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>377.675700615647</v>
+      </c>
+      <c r="J25" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>555</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
@@ -2074,28 +2152,31 @@
         <v>2020</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>477.277730092732</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6"/>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>604.73024124398</v>
+      </c>
+      <c r="J26" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>496</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
@@ -2105,28 +2186,31 @@
         <v>2020</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2">
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>534.371656881519</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6"/>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>571.187254104917</v>
+      </c>
+      <c r="J27" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>678</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
@@ -2135,29 +2219,32 @@
       <c r="B28" s="2">
         <v>2020</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="2">
         <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>818.97530421667</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>538.156926947441</v>
+      </c>
+      <c r="J28" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>686</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
@@ -2166,29 +2253,32 @@
       <c r="B29" s="2">
         <v>2020</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="4">
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2">
         <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>723.293799988999</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>491.978025904001</v>
+      </c>
+      <c r="J29" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>682</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
@@ -2197,29 +2287,32 @@
       <c r="B30" s="2">
         <v>2020</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="4">
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2">
         <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>810.826410784919</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>763.416566897744</v>
+      </c>
+      <c r="J30" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
@@ -2228,29 +2321,32 @@
       <c r="B31" s="2">
         <v>2020</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="2">
         <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>339.865608867428</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6"/>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>558.909255617834</v>
+      </c>
+      <c r="J31" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
@@ -2259,29 +2355,32 @@
       <c r="B32" s="2">
         <v>2020</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="2">
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>592.435890103395</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>543.478261012415</v>
+      </c>
+      <c r="J32" s="4">
+        <f ca="1" t="shared" si="3"/>
+        <v>591</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
@@ -2290,29 +2389,32 @@
       <c r="B33" s="2">
         <v>2020</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>444.817080364313</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>758.030349346518</v>
+      </c>
+      <c r="J33" s="4">
+        <f ca="1" t="shared" ref="J33:J42" si="4">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>709</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
@@ -2321,29 +2423,32 @@
       <c r="B34" s="2">
         <v>2020</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="4">
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>763.376903999449</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6"/>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>606.82345284181</v>
+      </c>
+      <c r="J34" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>439</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
@@ -2353,28 +2458,31 @@
         <v>2020</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
         <v>24</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>549.73392666551</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>617.932706501017</v>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
@@ -2383,29 +2491,32 @@
       <c r="B36" s="2">
         <v>2020</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="2">
         <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>580.502175575418</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6"/>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>740.236917066264</v>
+      </c>
+      <c r="J36" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
@@ -2414,29 +2525,32 @@
       <c r="B37" s="2">
         <v>2020</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E37" s="2">
         <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>345.419493497222</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>509.814881085812</v>
+      </c>
+      <c r="J37" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>904</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1">
@@ -2446,28 +2560,31 @@
         <v>2020</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2">
         <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>499.294944541681</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6"/>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>573.20998549598</v>
+      </c>
+      <c r="J38" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>785</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
@@ -2477,28 +2594,31 @@
         <v>2020</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>535.048484644089</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6"/>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>377.991136061394</v>
+      </c>
+      <c r="J39" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>893</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
@@ -2508,28 +2628,31 @@
         <v>2020</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2">
         <v>25</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
-      <c r="H40" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>535.456393058124</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6"/>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>350.269606815862</v>
+      </c>
+      <c r="J40" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>396</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1">
@@ -2539,28 +2662,31 @@
         <v>2020</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2">
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>380.7318212259</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>687.771691115258</v>
+      </c>
+      <c r="J41" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>825</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1">
@@ -2569,29 +2695,32 @@
       <c r="B42" s="2">
         <v>2020</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E42" s="2">
         <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>464.382621992673</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6"/>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>353.025962071759</v>
+      </c>
+      <c r="J42" s="4">
+        <f ca="1" t="shared" si="4"/>
+        <v>814</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1">
@@ -2601,28 +2730,31 @@
         <v>2020</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2">
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
-      <c r="H43" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>744.865473213007</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6"/>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>846.300210486776</v>
+      </c>
+      <c r="J43" s="4">
+        <f ca="1" t="shared" ref="J43:J52" si="5">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>687</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1">
@@ -2632,28 +2764,31 @@
         <v>2020</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2">
         <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>509.146249434169</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>822.086801816604</v>
+      </c>
+      <c r="J44" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>649</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1">
@@ -2662,29 +2797,32 @@
       <c r="B45" s="2">
         <v>2020</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="4">
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
         <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="H45" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>521.792397993212</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6"/>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>345.31022355951</v>
+      </c>
+      <c r="J45" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1">
@@ -2693,29 +2831,32 @@
       <c r="B46" s="2">
         <v>2020</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="4">
+      <c r="D46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="2">
         <v>21</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
-      <c r="H46" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>671.886732836729</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>457.260479509404</v>
+      </c>
+      <c r="J46" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>646</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
@@ -2724,29 +2865,32 @@
       <c r="B47" s="2">
         <v>2020</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2">
         <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>623.641743578834</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6"/>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>748.625026960214</v>
+      </c>
+      <c r="J47" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>652</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
@@ -2755,29 +2899,32 @@
       <c r="B48" s="2">
         <v>2020</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="4">
+      <c r="D48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
         <v>27</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>772.70546043454</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6"/>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>451.80940756442</v>
+      </c>
+      <c r="J48" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1">
@@ -2786,29 +2933,32 @@
       <c r="B49" s="2">
         <v>2020</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="4">
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2">
         <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>541.558373543556</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="6"/>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>799.821145134539</v>
+      </c>
+      <c r="J49" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>775</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
@@ -2818,28 +2968,31 @@
         <v>2020</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2">
         <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
-      <c r="H50" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>872.570886711499</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6"/>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>485.79066948859</v>
+      </c>
+      <c r="J50" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>842</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
@@ -2848,29 +3001,32 @@
       <c r="B51" s="2">
         <v>2020</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E51" s="2">
         <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>445.182642437318</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>644.230436770954</v>
+      </c>
+      <c r="J51" s="4">
+        <f ca="1" t="shared" si="5"/>
+        <v>504</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
@@ -2880,28 +3036,31 @@
         <v>2020</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2">
         <v>35</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="H52" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>829.302130945621</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>398.141160819784</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>NaN</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
@@ -2910,29 +3069,32 @@
       <c r="B53" s="2">
         <v>2020</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="4">
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2">
         <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>635.575229166225</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>346.050392528692</v>
+      </c>
+      <c r="J53" s="4">
+        <f ca="1" t="shared" ref="J53:J62" si="6">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>573</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
@@ -2941,29 +3103,32 @@
       <c r="B54" s="2">
         <v>2020</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="4">
+      <c r="D54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="2">
         <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
-      <c r="H54" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>440.427555300845</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6"/>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>353.009372043216</v>
+      </c>
+      <c r="J54" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>630</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
@@ -2973,28 +3138,31 @@
         <v>2020</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2">
         <v>21</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
       </c>
-      <c r="H55" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>428.268428077221</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6"/>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>668.329343513027</v>
+      </c>
+      <c r="J55" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>786</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1">
@@ -3004,28 +3172,31 @@
         <v>2020</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2">
         <v>21</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
-      <c r="H56" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>327.989791341531</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6"/>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>536.116875604638</v>
+      </c>
+      <c r="J56" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>796</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1">
@@ -3035,28 +3206,31 @@
         <v>2020</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2">
         <v>27</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
-      <c r="H57" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>605.197909353584</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>690.496301144158</v>
+      </c>
+      <c r="J57" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>836</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1">
@@ -3065,29 +3239,32 @@
       <c r="B58" s="2">
         <v>2020</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="4">
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2">
         <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>767.491360733193</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>846.740795533483</v>
+      </c>
+      <c r="J58" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1">
@@ -3096,31 +3273,34 @@
       <c r="B59" s="2">
         <v>2020</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E59" s="2">
         <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>507.205893862672</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>891.412931472707</v>
+      </c>
+      <c r="J59" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>200000400058</v>
       </c>
@@ -3128,59 +3308,67 @@
         <v>2020</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2">
         <v>21</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="H60" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>833.669853495795</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>756.690885406684</v>
+      </c>
+      <c r="J60" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>200000400059</v>
       </c>
       <c r="B61" s="2">
         <v>2020</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E61" s="2">
         <v>21</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
-      <c r="H61" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>702.788059069785</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>841.249329885857</v>
+      </c>
+      <c r="J61" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>200000400060</v>
       </c>
@@ -3188,29 +3376,33 @@
         <v>2020</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2">
         <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>863.652633546099</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>427.216034618625</v>
+      </c>
+      <c r="J62" s="4">
+        <f ca="1" t="shared" si="6"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>200000400061</v>
       </c>
@@ -3218,29 +3410,33 @@
         <v>2020</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63" s="2">
         <v>21</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
-      <c r="H63" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>701.025441746332</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>428.023936476292</v>
+      </c>
+      <c r="J63" s="4">
+        <f ca="1" t="shared" ref="J63:J72" si="7">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>200000400062</v>
       </c>
@@ -3248,29 +3444,33 @@
         <v>2020</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" s="2">
         <v>36</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
-      <c r="H64" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>533.81209212906</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>412.286058243801</v>
+      </c>
+      <c r="J64" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>200000400063</v>
       </c>
@@ -3278,89 +3478,101 @@
         <v>2020</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" s="2">
         <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
-      <c r="H65" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>447.931768119641</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <f ca="1" t="shared" si="0"/>
+        <v>446.366870221428</v>
+      </c>
+      <c r="J65" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>200000400064</v>
       </c>
       <c r="B66" s="2">
         <v>2020</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="4">
+      <c r="D66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2">
         <v>16</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>313.438458668141</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <f ca="1" t="shared" ref="I66:I110" si="8">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
+        <v>543.820195287344</v>
+      </c>
+      <c r="J66" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>200000400065</v>
       </c>
       <c r="B67" s="2">
         <v>2020</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E67" s="2">
         <v>33</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
-      <c r="H67" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>579.374439227086</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>855.307494942416</v>
+      </c>
+      <c r="J67" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>200000400066</v>
       </c>
@@ -3368,29 +3580,33 @@
         <v>2020</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2">
         <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
       </c>
-      <c r="H68" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>716.294427291271</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>818.273896156165</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>200000400067</v>
       </c>
@@ -3398,29 +3614,33 @@
         <v>2020</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" s="2">
         <v>24</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>612.770131612552</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>686.358454469232</v>
+      </c>
+      <c r="J69" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>200000400068</v>
       </c>
@@ -3428,149 +3648,169 @@
         <v>2020</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70" s="2">
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>517.469013241661</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>598.606487310208</v>
+      </c>
+      <c r="J70" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>200000400069</v>
       </c>
       <c r="B71" s="2">
         <v>2020</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="4">
+      <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2">
         <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
-      <c r="H71" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>728.834767810214</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>589.011954396764</v>
+      </c>
+      <c r="J71" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>200000400070</v>
       </c>
       <c r="B72" s="2">
         <v>2020</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="4">
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2">
         <v>21</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
-      <c r="H72" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>508.37528349066</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>752.614126486171</v>
+      </c>
+      <c r="J72" s="4">
+        <f ca="1" t="shared" si="7"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>200000400071</v>
       </c>
       <c r="B73" s="2">
         <v>2020</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="4">
+      <c r="D73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
         <v>26</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
       </c>
-      <c r="H73" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>867.352664106704</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>801.266586942958</v>
+      </c>
+      <c r="J73" s="4">
+        <f ca="1" t="shared" ref="J73:J82" si="9">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>200000400072</v>
       </c>
       <c r="B74" s="2">
         <v>2020</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="4">
+      <c r="D74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="2">
         <v>22</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="H74" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>672.636049338568</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>682.041000495851</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>200000400073</v>
       </c>
@@ -3578,29 +3818,33 @@
         <v>2020</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E75" s="2">
         <v>45</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>596.41638827316</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>499.485846038915</v>
+      </c>
+      <c r="J75" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>200000400074</v>
       </c>
@@ -3608,59 +3852,67 @@
         <v>2020</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2">
         <v>18</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>699.155696930913</v>
-      </c>
-      <c r="I76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>380.968290424554</v>
+      </c>
+      <c r="J76" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>200000400075</v>
       </c>
       <c r="B77" s="2">
         <v>2020</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="4">
+      <c r="D77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
         <v>23</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
       </c>
-      <c r="H77" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>657.99142617363</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>774.200451829285</v>
+      </c>
+      <c r="J77" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>200000400076</v>
       </c>
@@ -3668,29 +3920,33 @@
         <v>2020</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2">
         <v>28</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>637.187600431216</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>473.094904593673</v>
+      </c>
+      <c r="J78" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>200000400077</v>
       </c>
@@ -3698,29 +3954,33 @@
         <v>2020</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E79" s="2">
         <v>22</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
-      <c r="H79" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>364.892592072734</v>
-      </c>
-      <c r="I79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>630.41548388887</v>
+      </c>
+      <c r="J79" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>200000400078</v>
       </c>
@@ -3728,149 +3988,169 @@
         <v>2020</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E80" s="2">
         <v>19</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
-      <c r="H80" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>853.743447343969</v>
-      </c>
-      <c r="I80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>645.591030758842</v>
+      </c>
+      <c r="J80" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>200000400079</v>
       </c>
       <c r="B81" s="2">
         <v>2020</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E81" s="2">
         <v>18</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
-      <c r="H81" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>716.525493847338</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>520.606137058346</v>
+      </c>
+      <c r="J81" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>200000400080</v>
       </c>
       <c r="B82" s="2">
         <v>2020</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="C82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="2">
         <v>22</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
-      <c r="H82" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>774.904236303832</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>678.630675855237</v>
+      </c>
+      <c r="J82" s="4">
+        <f ca="1" t="shared" si="9"/>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>200000400081</v>
       </c>
       <c r="B83" s="2">
         <v>2020</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="4">
+      <c r="D83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="2">
         <v>20</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
-      <c r="H83" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>815.742596831267</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>666.507585332439</v>
+      </c>
+      <c r="J83" s="4">
+        <f ca="1" t="shared" ref="J83:J92" si="10">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>200000400082</v>
       </c>
       <c r="B84" s="2">
         <v>2020</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="4">
+      <c r="D84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="2">
         <v>20</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
-      <c r="H84" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>368.950824869057</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>583.049628083092</v>
+      </c>
+      <c r="J84" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>200000400083</v>
       </c>
@@ -3878,29 +4158,33 @@
         <v>2020</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2">
         <v>27</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
-      <c r="H85" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>440.947029710232</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>376.385863011455</v>
+      </c>
+      <c r="J85" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>200000400084</v>
       </c>
@@ -3908,119 +4192,135 @@
         <v>2020</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" s="2">
         <v>20</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
       </c>
-      <c r="H86" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>703.618568495179</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>778.449968955551</v>
+      </c>
+      <c r="J86" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>200000400085</v>
       </c>
       <c r="B87" s="2">
         <v>2020</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="C87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2">
         <v>17</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
-      <c r="H87" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>388.067834553429</v>
-      </c>
-      <c r="I87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>653.785718108839</v>
+      </c>
+      <c r="J87" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>200000400086</v>
       </c>
       <c r="B88" s="2">
         <v>2020</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="4">
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2">
         <v>22</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88" s="2">
         <v>0</v>
       </c>
-      <c r="H88" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>399.587047342084</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>706.822155523005</v>
+      </c>
+      <c r="J88" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>200000400087</v>
       </c>
       <c r="B89" s="2">
         <v>2020</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="4">
+      <c r="D89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="2">
         <v>35</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
-      <c r="H89" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>479.799845972387</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>348.839784221556</v>
+      </c>
+      <c r="J89" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>200000400088</v>
       </c>
@@ -4028,59 +4328,67 @@
         <v>2020</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2">
         <v>18</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
-      <c r="H90" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>834.807097872299</v>
-      </c>
-      <c r="I90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>644.268359916014</v>
+      </c>
+      <c r="J90" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>200000400089</v>
       </c>
       <c r="B91" s="2">
         <v>2020</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="4">
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2">
         <v>35</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
-      <c r="H91" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>560.285875101503</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>453.339143437458</v>
+      </c>
+      <c r="J91" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>200000400090</v>
       </c>
@@ -4088,29 +4396,33 @@
         <v>2020</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2">
         <v>26</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
-      <c r="H92" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>592.178044993915</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>847.157412543389</v>
+      </c>
+      <c r="J92" s="4">
+        <f ca="1" t="shared" si="10"/>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>200000400091</v>
       </c>
@@ -4118,29 +4430,33 @@
         <v>2020</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93" s="2">
         <v>32</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
-      <c r="H93" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>570.325162716139</v>
-      </c>
-      <c r="I93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>530.082216292352</v>
+      </c>
+      <c r="J93" s="4">
+        <f ca="1" t="shared" ref="J93:J102" si="11">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>200000400092</v>
       </c>
@@ -4148,29 +4464,33 @@
         <v>2020</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2">
         <v>42</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>715.201558005558</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>640.173196479704</v>
+      </c>
+      <c r="J94" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>200000400093</v>
       </c>
@@ -4178,59 +4498,67 @@
         <v>2020</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" s="2">
         <v>23</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
-      <c r="H95" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>627.984112870441</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>718.198939365474</v>
+      </c>
+      <c r="J95" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>200000400094</v>
       </c>
       <c r="B96" s="2">
         <v>2020</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E96" s="4">
+      <c r="D96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="2">
         <v>17</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
-      <c r="H96" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>499.078984230649</v>
-      </c>
-      <c r="I96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>418.156435801456</v>
+      </c>
+      <c r="J96" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>200000400095</v>
       </c>
@@ -4238,29 +4566,33 @@
         <v>2020</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2">
         <v>26</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
-      <c r="H97" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>379.457280263643</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>582.151914936572</v>
+      </c>
+      <c r="J97" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>200000400096</v>
       </c>
@@ -4268,59 +4600,67 @@
         <v>2020</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E98" s="2">
         <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
       </c>
-      <c r="H98" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>679.431171565631</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>604.320546778248</v>
+      </c>
+      <c r="J98" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>200000400097</v>
       </c>
       <c r="B99" s="2">
         <v>2020</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="4">
+      <c r="D99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
         <v>21</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
       </c>
-      <c r="H99" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>714.454313284015</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>635.2998529207</v>
+      </c>
+      <c r="J99" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>200000400098</v>
       </c>
@@ -4328,89 +4668,101 @@
         <v>2020</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E100" s="2">
         <v>29</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
-      <c r="H100" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>497.078855926567</v>
-      </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>468.14247589653</v>
+      </c>
+      <c r="J100" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>200000400099</v>
       </c>
       <c r="B101" s="2">
         <v>2020</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E101" s="2">
         <v>20</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>882.548842111913</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>420.095803041619</v>
+      </c>
+      <c r="J101" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>200000400100</v>
       </c>
       <c r="B102" s="2">
         <v>2020</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="4">
+      <c r="D102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2">
         <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
-      <c r="H102" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>388.119894393622</v>
-      </c>
-      <c r="I102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>841.32994906561</v>
+      </c>
+      <c r="J102" s="4">
+        <f ca="1" t="shared" si="11"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>200000400101</v>
       </c>
@@ -4418,59 +4770,67 @@
         <v>2020</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E103" s="2">
         <v>26</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
       </c>
-      <c r="H103" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>563.62897530338</v>
-      </c>
-      <c r="I103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>572.13972004506</v>
+      </c>
+      <c r="J103" s="4">
+        <f ca="1" t="shared" ref="J103:J110" si="12">IF((RANDBETWEEN(-1,10)=-1),"NaN",(IF((RANDBETWEEN(0,100)=0),0,(RANDBETWEEN(380,1000)))))</f>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>200000400102</v>
       </c>
       <c r="B104" s="2">
         <v>2020</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E104" s="2">
         <v>18</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
       </c>
-      <c r="H104" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>516.555939913961</v>
-      </c>
-      <c r="I104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>628.332991378347</v>
+      </c>
+      <c r="J104" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>200000400103</v>
       </c>
@@ -4478,119 +4838,135 @@
         <v>2020</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2">
         <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
       </c>
-      <c r="H105" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>452.282564951749</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>505.163240670889</v>
+      </c>
+      <c r="J105" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>200000400104</v>
       </c>
       <c r="B106" s="2">
         <v>2020</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>20</v>
+      <c r="C106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E106" s="2">
         <v>19</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
-      <c r="H106" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>417.001077726319</v>
-      </c>
-      <c r="I106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>640.545613625019</v>
+      </c>
+      <c r="J106" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>200000400105</v>
       </c>
       <c r="B107" s="2">
         <v>2020</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="C107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="2">
         <v>17</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
       </c>
-      <c r="H107" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>757.786526646203</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>575.155749122438</v>
+      </c>
+      <c r="J107" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>200000400106</v>
       </c>
       <c r="B108" s="2">
         <v>2020</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E108" s="4">
+      <c r="D108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="2">
         <v>15</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
       </c>
-      <c r="H108" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>584.955644819435</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>793.436499569242</v>
+      </c>
+      <c r="J108" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>200000400107</v>
       </c>
@@ -4598,29 +4974,33 @@
         <v>2020</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E109" s="2">
         <v>24</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
       </c>
-      <c r="H109" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>668.175281418512</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>373.860450777262</v>
+      </c>
+      <c r="J109" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>200000400108</v>
       </c>
@@ -4628,33 +5008,34 @@
         <v>2020</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E110" s="2">
         <v>19</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
-      <c r="H110" s="3">
-        <f ca="1">(RANDBETWEEN(600,800)+RAND()*1000)/2</f>
-        <v>818.490386527099</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1</v>
+      <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3">
+        <f ca="1" t="shared" si="8"/>
+        <v>657.3614949931</v>
+      </c>
+      <c r="J110" s="4">
+        <f ca="1" t="shared" si="12"/>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I110">
-    <sortState ref="A2:I110">
-      <sortCondition ref="A1" descending="1"/>
-    </sortState>
+  <autoFilter ref="A1:J110">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
